--- a/tools.xlsx
+++ b/tools.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">Tweezers, Idealtek Anti-Magnetic No. 7 Very Fine, Curved Tips</t>
   </si>
@@ -79,16 +79,25 @@
     <t xml:space="preserve">Eyeglass, Black No. 3.5 = 2.8x (Bergeon 4422-3.5)</t>
   </si>
   <si>
+    <t xml:space="preserve">White Cotton Gloves (Lint Free) Ladies Size - , retail. (T83814S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H&amp;S Walsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screwdriver Ø1.60mm Bergeon 30080-H - HS1416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dust Cover &amp; Tray Divided For Watch Movements – HM71</t>
+  </si>
+  <si>
     <t xml:space="preserve">Basket 25mm Mini Watch Part Cleaning Basket Economy - HB125 </t>
   </si>
   <si>
-    <t xml:space="preserve">H &amp; S Walsh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Basket Ø21mm x 11mm Mini Watch Part Cleaning Basket Economy - HB120 </t>
   </si>
   <si>
-    <t xml:space="preserve">Latex ESD Finger Protection Thimble Cots Medium (Pack Of 144) Bergeon 7968-18 - HP7968-18 </t>
+    <t xml:space="preserve">Latex ESD Finger Protection Thimble Cots Medium (Pack Of 144) Bergeon 7968-18</t>
   </si>
   <si>
     <t xml:space="preserve">Eyeglass 3.3x Magnification Black Plastic Watchmakers Bergeon 4422-3 - HE4422-3 </t>
@@ -127,25 +136,22 @@
     <t xml:space="preserve">Barrel press</t>
   </si>
   <si>
-    <t xml:space="preserve">Syntalube (2ml)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can’t find the receipt for these so just a guess!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moebius 8300 (10ml)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renata essence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergeon oiler (green)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergeon oiler (red)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergeon case cushion</t>
+    <t xml:space="preserve">Oil Synt-A-Lube Moebius 9010 (2ml) – HO9010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grease Natural Moebius 8300 20ml - HG8300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hairspring Degreasing Degreaser 250ml Essence of Renata – HF6013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oiler (Large) Green Bergeon 30102-C – HO30102-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oiler (Small) Red Bergeon 30102-A - HO30102-A (HO30102-A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Cushion Watch Black Gel Ø75mm Bergeon 5395-75-N – HC5395-75-N</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -233,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +262,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -275,10 +285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -435,32 +445,34 @@
         <v>7.95</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2"/>
+    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.66</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>5.95</v>
+      <c r="B22" s="1" t="n">
+        <v>3.23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,15 +480,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>7.95</v>
-      </c>
+        <v>1.95</v>
+      </c>
+      <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>11.45</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,7 +497,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,21 +505,23 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>11.45</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,40 +529,38 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <f aca="false">40*0.8</f>
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <f aca="false">9*0.8</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <f aca="false">19.99*0.8</f>
-        <v>15.992</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,18 +568,22 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="n">
-        <f aca="false">4.95*0.8</f>
-        <v>3.96</v>
-      </c>
+        <f aca="false">9*0.8</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="2" t="n">
+        <f aca="false">19.99*0.8</f>
+        <v>15.992</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -574,63 +591,83 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C38" s="5"/>
+      <c r="B37" s="2" t="n">
+        <f aca="false">4.95*0.8</f>
+        <v>3.96</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="5"/>
+        <v>19.38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>2</v>
+        <v>12.9</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C41" s="5"/>
+      <c r="B42" s="4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <f aca="false">SUM(B1:B41)</f>
-        <v>434.752</v>
-      </c>
+      <c r="B43" s="6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <f aca="false">B43*1.2</f>
-        <v>521.7024</v>
+      <c r="B44" s="4" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <f aca="false">SUM(B1:B44)</f>
+        <v>441.452</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <f aca="false">B46*1.2</f>
+        <v>529.7424</v>
       </c>
     </row>
   </sheetData>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Tweezers, Idealtek Anti-Magnetic No. 7 Very Fine, Curved Tips</t>
   </si>
   <si>
-    <t xml:space="preserve">gleave.london</t>
+    <t xml:space="preserve">Gleave London</t>
   </si>
   <si>
     <t xml:space="preserve">Bergeon 6938 Dial Protector</t>
@@ -168,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,12 +189,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,10 +246,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,7 +254,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,7 +278,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,7 +472,6 @@
       <c r="B23" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -600,7 +589,7 @@
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>19.38</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -611,46 +600,46 @@
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>12.9</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>7.86</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>2.77</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="n">
+      <c r="B43" s="5" t="n">
         <v>2.77</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>26.78</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t xml:space="preserve">Tweezers, Idealtek Anti-Magnetic No. 7 Very Fine, Curved Tips</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t xml:space="preserve">Case Cushion Watch Black Gel Ø75mm Bergeon 5395-75-N – HC5395-75-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin vices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass benzine cup</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -275,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -645,18 +651,39 @@
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <f aca="false">SUM(B1:B44)</f>
-        <v>441.452</v>
+      <c r="B46" s="1" t="n">
+        <f aca="false">4.19*0.8</f>
+        <v>3.352</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <f aca="false">B46*1.2</f>
-        <v>529.7424</v>
+      <c r="B47" s="1" t="n">
+        <f aca="false">6.51*0.8</f>
+        <v>5.208</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <f aca="false">SUM(B1:B49)</f>
+        <v>450.012</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <f aca="false">B50*1.2</f>
+        <v>540.0144</v>
       </c>
     </row>
   </sheetData>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t xml:space="preserve">Tweezers, Idealtek Anti-Magnetic No. 7 Very Fine, Curved Tips</t>
   </si>
@@ -79,64 +79,61 @@
     <t xml:space="preserve">Eyeglass, Black No. 3.5 = 2.8x (Bergeon 4422-3.5)</t>
   </si>
   <si>
-    <t xml:space="preserve">White Cotton Gloves (Lint Free) Ladies Size - , retail. (T83814S)</t>
+    <t xml:space="preserve">Screwdriver Ø1.60mm Bergeon 30080-H - HS1416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dust Cover &amp; Tray Divided For Watch Movements – HM71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket 25mm Mini Watch Part Cleaning Basket Economy - HB125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket Ø21mm x 11mm Mini Watch Part Cleaning Basket Economy - HB120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latex ESD Finger Protection Thimble Cots Medium (Pack Of 144) Bergeon 7968-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyeglass 3.3x Magnification Black Plastic Watchmakers Bergeon 4422-3 - HE4422-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage Box Work In Hand Blue Lockable With 6 Compartments &amp; Clear Lid - HB320 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foam Insert 5 Compartment For HB320 – HI320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage Box Work In Hand Blue Lockable With 10 Compartments &amp; Clear Lid - HB320A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergeon 6767-F Watch Spring Bar Tool - Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch Back Case Opener Remover Remove Removal Knife Repair Tool (2 pcs) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultrasonic cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergent for ultrasonic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eBay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Synt-A-Lube Moebius 9010 (2ml) – HO9010</t>
   </si>
   <si>
     <t xml:space="preserve">H&amp;S Walsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screwdriver Ø1.60mm Bergeon 30080-H - HS1416 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dust Cover &amp; Tray Divided For Watch Movements – HM71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basket 25mm Mini Watch Part Cleaning Basket Economy - HB125 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basket Ø21mm x 11mm Mini Watch Part Cleaning Basket Economy - HB120 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latex ESD Finger Protection Thimble Cots Medium (Pack Of 144) Bergeon 7968-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eyeglass 3.3x Magnification Black Plastic Watchmakers Bergeon 4422-3 - HE4422-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage Box Work In Hand Blue Lockable With 6 Compartments &amp; Clear Lid - HB320 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foam Insert 5 Compartment For HB320 – HI320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage Box Work In Hand Blue Lockable With 10 Compartments &amp; Clear Lid - HB320A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergeon 6767-F Watch Spring Bar Tool - Long </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watch Back Case Opener Remover Remove Removal Knife Repair Tool (2 pcs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultrasonic cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detergent for ultrasonic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eBay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrel press</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Synt-A-Lube Moebius 9010 (2ml) – HO9010</t>
   </si>
   <si>
     <t xml:space="preserve">Grease Natural Moebius 8300 20ml - HG8300 </t>
@@ -281,10 +278,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,146 +446,146 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>11.56</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>3.23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>3.23</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.66</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>5.5</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>7.95</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>11.45</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="2" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>11.45</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <f aca="false">40*0.8</f>
         <v>32</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>3.9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <f aca="false">40*0.8</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2" t="n">
         <f aca="false">9*0.8</f>
         <v>7.2</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2"/>
+    </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <f aca="false">19.99*0.8</f>
+        <v>15.992</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <f aca="false">19.99*0.8</f>
-        <v>15.992</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="n">
         <f aca="false">4.95*0.8</f>
         <v>3.96</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,18 +593,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>12.9</v>
+        <v>7.86</v>
       </c>
       <c r="C40" s="4"/>
     </row>
@@ -616,7 +611,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>7.86</v>
+        <v>2.77</v>
       </c>
       <c r="C41" s="4"/>
     </row>
@@ -624,7 +619,7 @@
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="5" t="n">
         <v>2.77</v>
       </c>
       <c r="C42" s="4"/>
@@ -633,57 +628,48 @@
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="n">
-        <v>2.77</v>
+      <c r="B43" s="3" t="n">
+        <v>26.78</v>
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="C44" s="4"/>
+      <c r="B45" s="1" t="n">
+        <f aca="false">4.19*0.8</f>
+        <v>3.352</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="n">
-        <f aca="false">4.19*0.8</f>
-        <v>3.352</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="n">
         <f aca="false">6.51*0.8</f>
         <v>5.208</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <f aca="false">SUM(B1:B47)</f>
+        <v>448.112</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="2" t="n">
-        <f aca="false">SUM(B1:B49)</f>
-        <v>450.012</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <f aca="false">B50*1.2</f>
-        <v>540.0144</v>
+      <c r="B49" s="2" t="n">
+        <f aca="false">B48*1.2</f>
+        <v>537.7344</v>
       </c>
     </row>
   </sheetData>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">Tweezers, Idealtek Anti-Magnetic No. 7 Very Fine, Curved Tips</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">Selvyt Medium (PR) Cloth, White Size: Size A 25x25cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glass, Dial and Hand Cleaning Pen (Bergeon 7971)</t>
   </si>
   <si>
     <t xml:space="preserve">Bergeon 30080 - Individual Screwdrivers with Blades Color: White - 0.60mm</t>
@@ -278,10 +275,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,7 +360,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>17.95</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,7 +384,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>11.95</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,7 +392,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>29.95</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,7 +416,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4.95</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,34 +424,34 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>12.8</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="n">
+        <v>11.56</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>11.56</v>
+      <c r="B20" s="1" t="n">
+        <v>3.23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>3.23</v>
+      <c r="B21" s="2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +459,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,7 +467,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.66</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +475,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>5.5</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +483,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>7.95</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,7 +491,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>11.45</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,29 +499,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.5</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>11.45</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,7 +529,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>3.9</v>
+        <f aca="false">40*0.8</f>
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,60 +538,60 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="n">
-        <f aca="false">40*0.8</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="n">
         <f aca="false">9*0.8</f>
         <v>7.2</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2"/>
+    </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <f aca="false">19.99*0.8</f>
+        <v>15.992</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <f aca="false">19.99*0.8</f>
-        <v>15.992</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="n">
         <f aca="false">4.95*0.8</f>
         <v>3.96</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>12.9</v>
+        <v>7.86</v>
       </c>
       <c r="C39" s="4"/>
     </row>
@@ -602,7 +600,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>7.86</v>
+        <v>2.77</v>
       </c>
       <c r="C40" s="4"/>
     </row>
@@ -610,7 +608,7 @@
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="5" t="n">
         <v>2.77</v>
       </c>
       <c r="C41" s="4"/>
@@ -619,39 +617,39 @@
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="n">
-        <v>2.77</v>
+      <c r="B42" s="3" t="n">
+        <v>26.78</v>
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="C43" s="4"/>
+      <c r="B44" s="1" t="n">
+        <f aca="false">4.19*0.8</f>
+        <v>3.352</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="n">
-        <f aca="false">4.19*0.8</f>
-        <v>3.352</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="n">
         <f aca="false">6.51*0.8</f>
         <v>5.208</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <f aca="false">SUM(B1:B46)</f>
+        <v>430.162</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,17 +657,8 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="n">
-        <f aca="false">SUM(B1:B47)</f>
-        <v>448.112</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <f aca="false">B48*1.2</f>
-        <v>537.7344</v>
+        <f aca="false">B47*1.2</f>
+        <v>516.1944</v>
       </c>
     </row>
   </sheetData>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="tools" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="tools" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t xml:space="preserve">Tweezers, Idealtek Anti-Magnetic No. 7 Very Fine, Curved Tips</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t xml:space="preserve">Glass benzine cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sealing Grease Applicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cousins</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -233,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,6 +264,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,15 +280,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,7 +742,7 @@
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="6" t="n">
         <f aca="false">4.19*0.8</f>
         <v>3.352</v>
       </c>
@@ -638,27 +754,41 @@
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="6" t="n">
         <f aca="false">6.51*0.8</f>
         <v>5.208</v>
       </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <f aca="false">SUM(B1:B46)</f>
-        <v>430.162</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <f aca="false">B47*1.2</f>
-        <v>516.1944</v>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <f aca="false">SUM(B1:B48)</f>
+        <v>433.362</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <f aca="false">B49*1.2</f>
+        <v>520.0344</v>
       </c>
     </row>
   </sheetData>
